--- a/data/valuation_mtrx.xlsx
+++ b/data/valuation_mtrx.xlsx
@@ -596,10 +596,10 @@
         <v>0</v>
       </c>
       <c r="B4">
-        <v>20000</v>
+        <v>21000</v>
       </c>
       <c r="C4">
-        <v>44000</v>
+        <v>46000</v>
       </c>
       <c r="D4">
         <v>2000</v>
@@ -608,10 +608,10 @@
         <v>2000</v>
       </c>
       <c r="F4">
-        <v>0.044</v>
+        <v>0.04</v>
       </c>
       <c r="G4">
-        <v>0.05400000000000001</v>
+        <v>0.046</v>
       </c>
       <c r="H4">
         <v>8369.690000000001</v>
@@ -632,10 +632,10 @@
         <v>0.145</v>
       </c>
       <c r="N4">
-        <v>2008.7256</v>
+        <v>2109.16188</v>
       </c>
       <c r="O4">
-        <v>3619.39776</v>
+        <v>3783.91584</v>
       </c>
       <c r="P4">
         <v>200.87256</v>
@@ -644,49 +644,49 @@
         <v>164.51808</v>
       </c>
       <c r="R4">
-        <v>1673.938</v>
+        <v>1757.6349</v>
       </c>
       <c r="S4">
-        <v>3016.1648</v>
+        <v>3153.2632</v>
       </c>
       <c r="T4">
-        <v>16.73938</v>
+        <v>17.576349</v>
       </c>
       <c r="U4">
-        <v>30.161648</v>
+        <v>31.532632</v>
       </c>
       <c r="V4">
-        <v>2226.33754</v>
+        <v>2327.610789</v>
       </c>
       <c r="W4">
-        <v>3814.077487999999</v>
+        <v>3979.966552</v>
       </c>
       <c r="X4">
-        <v>2226.33754</v>
+        <v>2327.610789</v>
       </c>
       <c r="Y4">
-        <v>3814.077487999999</v>
+        <v>3979.966552</v>
       </c>
       <c r="Z4">
-        <v>322.8189433</v>
+        <v>337.503564405</v>
       </c>
       <c r="AA4">
-        <v>553.0412357599998</v>
+        <v>577.0951500399999</v>
       </c>
       <c r="AB4">
-        <v>1903.5185967</v>
+        <v>1990.107224595</v>
       </c>
       <c r="AC4">
-        <v>3261.03625224</v>
+        <v>3402.87140196</v>
       </c>
       <c r="AD4">
-        <v>43261.78628863636</v>
+        <v>49752.680614875</v>
       </c>
       <c r="AE4">
-        <v>60389.56022666665</v>
+        <v>73975.46526000001</v>
       </c>
       <c r="AF4">
-        <v>103651.346515303</v>
+        <v>123728.145874875</v>
       </c>
     </row>
     <row r="5" spans="1:32">
@@ -694,10 +694,10 @@
         <v>1</v>
       </c>
       <c r="B5">
-        <v>20000</v>
+        <v>21000</v>
       </c>
       <c r="C5">
-        <v>44000</v>
+        <v>46000</v>
       </c>
       <c r="D5">
         <v>2000</v>
@@ -706,10 +706,10 @@
         <v>2000</v>
       </c>
       <c r="F5">
-        <v>0.043</v>
+        <v>0.04099999999999999</v>
       </c>
       <c r="G5">
-        <v>0.052</v>
+        <v>0.048</v>
       </c>
       <c r="H5">
         <v>8369.690000000001</v>
@@ -730,10 +730,10 @@
         <v>0.145</v>
       </c>
       <c r="N5">
-        <v>2008.7256</v>
+        <v>2109.16188</v>
       </c>
       <c r="O5">
-        <v>3619.39776</v>
+        <v>3783.91584</v>
       </c>
       <c r="P5">
         <v>200.87256</v>
@@ -742,49 +742,49 @@
         <v>164.51808</v>
       </c>
       <c r="R5">
-        <v>1673.938</v>
+        <v>1757.6349</v>
       </c>
       <c r="S5">
-        <v>3016.1648</v>
+        <v>3153.2632</v>
       </c>
       <c r="T5">
-        <v>16.73938</v>
+        <v>17.576349</v>
       </c>
       <c r="U5">
-        <v>30.161648</v>
+        <v>31.532632</v>
       </c>
       <c r="V5">
-        <v>2226.33754</v>
+        <v>2327.610789</v>
       </c>
       <c r="W5">
-        <v>3814.077487999999</v>
+        <v>3979.966552</v>
       </c>
       <c r="X5">
-        <v>2226.33754</v>
+        <v>2327.610789</v>
       </c>
       <c r="Y5">
-        <v>3814.077487999999</v>
+        <v>3979.966552</v>
       </c>
       <c r="Z5">
-        <v>322.8189433</v>
+        <v>337.503564405</v>
       </c>
       <c r="AA5">
-        <v>553.0412357599998</v>
+        <v>577.0951500399999</v>
       </c>
       <c r="AB5">
-        <v>1903.5185967</v>
+        <v>1990.107224595</v>
       </c>
       <c r="AC5">
-        <v>3261.03625224</v>
+        <v>3402.87140196</v>
       </c>
       <c r="AD5">
-        <v>44267.87434186047</v>
+        <v>48539.20059987805</v>
       </c>
       <c r="AE5">
-        <v>62712.23561999998</v>
+        <v>70893.1542075</v>
       </c>
       <c r="AF5">
-        <v>106980.1099618605</v>
+        <v>119432.3548073781</v>
       </c>
     </row>
     <row r="6" spans="1:32">
@@ -792,10 +792,10 @@
         <v>2</v>
       </c>
       <c r="B6">
-        <v>20000</v>
+        <v>21000</v>
       </c>
       <c r="C6">
-        <v>44000</v>
+        <v>46000</v>
       </c>
       <c r="D6">
         <v>2000</v>
@@ -828,10 +828,10 @@
         <v>0.145</v>
       </c>
       <c r="N6">
-        <v>2008.7256</v>
+        <v>2109.16188</v>
       </c>
       <c r="O6">
-        <v>3619.39776</v>
+        <v>3783.91584</v>
       </c>
       <c r="P6">
         <v>200.87256</v>
@@ -840,49 +840,49 @@
         <v>164.51808</v>
       </c>
       <c r="R6">
-        <v>1673.938</v>
+        <v>1757.6349</v>
       </c>
       <c r="S6">
-        <v>3016.1648</v>
+        <v>3153.2632</v>
       </c>
       <c r="T6">
-        <v>16.73938</v>
+        <v>17.576349</v>
       </c>
       <c r="U6">
-        <v>30.161648</v>
+        <v>31.532632</v>
       </c>
       <c r="V6">
-        <v>2226.33754</v>
+        <v>2327.610789</v>
       </c>
       <c r="W6">
-        <v>3814.077487999999</v>
+        <v>3979.966552</v>
       </c>
       <c r="X6">
-        <v>2226.33754</v>
+        <v>2327.610789</v>
       </c>
       <c r="Y6">
-        <v>3814.077487999999</v>
+        <v>3979.966552</v>
       </c>
       <c r="Z6">
-        <v>322.8189433</v>
+        <v>337.503564405</v>
       </c>
       <c r="AA6">
-        <v>553.0412357599998</v>
+        <v>577.0951500399999</v>
       </c>
       <c r="AB6">
-        <v>1903.5185967</v>
+        <v>1990.107224595</v>
       </c>
       <c r="AC6">
-        <v>3261.03625224</v>
+        <v>3402.87140196</v>
       </c>
       <c r="AD6">
-        <v>45321.87134999999</v>
+        <v>47383.50534749999</v>
       </c>
       <c r="AE6">
-        <v>65220.72504479999</v>
+        <v>68057.42803919999</v>
       </c>
       <c r="AF6">
-        <v>110542.5963948</v>
+        <v>115440.9333867</v>
       </c>
     </row>
     <row r="7" spans="1:32">
@@ -890,10 +890,10 @@
         <v>3</v>
       </c>
       <c r="B7">
-        <v>20000</v>
+        <v>21000</v>
       </c>
       <c r="C7">
-        <v>44000</v>
+        <v>46000</v>
       </c>
       <c r="D7">
         <v>2000</v>
@@ -902,10 +902,10 @@
         <v>2000</v>
       </c>
       <c r="F7">
-        <v>0.04099999999999999</v>
+        <v>0.043</v>
       </c>
       <c r="G7">
-        <v>0.048</v>
+        <v>0.052</v>
       </c>
       <c r="H7">
         <v>8369.690000000001</v>
@@ -926,10 +926,10 @@
         <v>0.145</v>
       </c>
       <c r="N7">
-        <v>2008.7256</v>
+        <v>2109.16188</v>
       </c>
       <c r="O7">
-        <v>3619.39776</v>
+        <v>3783.91584</v>
       </c>
       <c r="P7">
         <v>200.87256</v>
@@ -938,49 +938,49 @@
         <v>164.51808</v>
       </c>
       <c r="R7">
-        <v>1673.938</v>
+        <v>1757.6349</v>
       </c>
       <c r="S7">
-        <v>3016.1648</v>
+        <v>3153.2632</v>
       </c>
       <c r="T7">
-        <v>16.73938</v>
+        <v>17.576349</v>
       </c>
       <c r="U7">
-        <v>30.161648</v>
+        <v>31.532632</v>
       </c>
       <c r="V7">
-        <v>2226.33754</v>
+        <v>2327.610789</v>
       </c>
       <c r="W7">
-        <v>3814.077487999999</v>
+        <v>3979.966552</v>
       </c>
       <c r="X7">
-        <v>2226.33754</v>
+        <v>2327.610789</v>
       </c>
       <c r="Y7">
-        <v>3814.077487999999</v>
+        <v>3979.966552</v>
       </c>
       <c r="Z7">
-        <v>322.8189433</v>
+        <v>337.503564405</v>
       </c>
       <c r="AA7">
-        <v>553.0412357599998</v>
+        <v>577.0951500399999</v>
       </c>
       <c r="AB7">
-        <v>1903.5185967</v>
+        <v>1990.107224595</v>
       </c>
       <c r="AC7">
-        <v>3261.03625224</v>
+        <v>3402.87140196</v>
       </c>
       <c r="AD7">
-        <v>46427.28284634147</v>
+        <v>46281.56336267442</v>
       </c>
       <c r="AE7">
-        <v>67938.255255</v>
+        <v>65439.83465307692</v>
       </c>
       <c r="AF7">
-        <v>114365.5381013415</v>
+        <v>111721.3980157513</v>
       </c>
     </row>
     <row r="8" spans="1:32">
@@ -988,10 +988,10 @@
         <v>4</v>
       </c>
       <c r="B8">
-        <v>20000</v>
+        <v>21000</v>
       </c>
       <c r="C8">
-        <v>44000</v>
+        <v>46000</v>
       </c>
       <c r="D8">
         <v>2000</v>
@@ -1000,10 +1000,10 @@
         <v>2000</v>
       </c>
       <c r="F8">
-        <v>0.04</v>
+        <v>0.044</v>
       </c>
       <c r="G8">
-        <v>0.046</v>
+        <v>0.05400000000000001</v>
       </c>
       <c r="H8">
         <v>8369.690000000001</v>
@@ -1024,10 +1024,10 @@
         <v>0.145</v>
       </c>
       <c r="N8">
-        <v>2008.7256</v>
+        <v>2109.16188</v>
       </c>
       <c r="O8">
-        <v>3619.39776</v>
+        <v>3783.91584</v>
       </c>
       <c r="P8">
         <v>200.87256</v>
@@ -1036,49 +1036,49 @@
         <v>164.51808</v>
       </c>
       <c r="R8">
-        <v>1673.938</v>
+        <v>1757.6349</v>
       </c>
       <c r="S8">
-        <v>3016.1648</v>
+        <v>3153.2632</v>
       </c>
       <c r="T8">
-        <v>16.73938</v>
+        <v>17.576349</v>
       </c>
       <c r="U8">
-        <v>30.161648</v>
+        <v>31.532632</v>
       </c>
       <c r="V8">
-        <v>2226.33754</v>
+        <v>2327.610789</v>
       </c>
       <c r="W8">
-        <v>3814.077487999999</v>
+        <v>3979.966552</v>
       </c>
       <c r="X8">
-        <v>2226.33754</v>
+        <v>2327.610789</v>
       </c>
       <c r="Y8">
-        <v>3814.077487999999</v>
+        <v>3979.966552</v>
       </c>
       <c r="Z8">
-        <v>322.8189433</v>
+        <v>337.503564405</v>
       </c>
       <c r="AA8">
-        <v>553.0412357599998</v>
+        <v>577.0951500399999</v>
       </c>
       <c r="AB8">
-        <v>1903.5185967</v>
+        <v>1990.107224595</v>
       </c>
       <c r="AC8">
-        <v>3261.03625224</v>
+        <v>3402.87140196</v>
       </c>
       <c r="AD8">
-        <v>47587.9649175</v>
+        <v>45229.70964988636</v>
       </c>
       <c r="AE8">
-        <v>70892.09243999999</v>
+        <v>63016.13707333333</v>
       </c>
       <c r="AF8">
-        <v>118480.0573575</v>
+        <v>108245.8467232197</v>
       </c>
     </row>
     <row r="9" spans="1:32">
@@ -1086,10 +1086,10 @@
         <v>5</v>
       </c>
       <c r="B9">
-        <v>21000</v>
+        <v>22000</v>
       </c>
       <c r="C9">
-        <v>46000</v>
+        <v>48000</v>
       </c>
       <c r="D9">
         <v>2000</v>
@@ -1098,10 +1098,10 @@
         <v>2000</v>
       </c>
       <c r="F9">
-        <v>0.044</v>
+        <v>0.04</v>
       </c>
       <c r="G9">
-        <v>0.05400000000000001</v>
+        <v>0.046</v>
       </c>
       <c r="H9">
         <v>8369.690000000001</v>
@@ -1122,10 +1122,10 @@
         <v>0.145</v>
       </c>
       <c r="N9">
-        <v>2109.16188</v>
+        <v>2209.59816</v>
       </c>
       <c r="O9">
-        <v>3783.91584</v>
+        <v>3948.43392</v>
       </c>
       <c r="P9">
         <v>200.87256</v>
@@ -1134,49 +1134,49 @@
         <v>164.51808</v>
       </c>
       <c r="R9">
-        <v>1757.6349</v>
+        <v>1841.3318</v>
       </c>
       <c r="S9">
-        <v>3153.2632</v>
+        <v>3290.3616</v>
       </c>
       <c r="T9">
-        <v>17.576349</v>
+        <v>18.413318</v>
       </c>
       <c r="U9">
-        <v>31.532632</v>
+        <v>32.903616</v>
       </c>
       <c r="V9">
-        <v>2327.610789</v>
+        <v>2428.884038</v>
       </c>
       <c r="W9">
-        <v>3979.966552</v>
+        <v>4145.855616</v>
       </c>
       <c r="X9">
-        <v>2327.610789</v>
+        <v>2428.884038</v>
       </c>
       <c r="Y9">
-        <v>3979.966552</v>
+        <v>4145.855616</v>
       </c>
       <c r="Z9">
-        <v>337.503564405</v>
+        <v>352.1881855099999</v>
       </c>
       <c r="AA9">
-        <v>577.0951500399999</v>
+        <v>601.14906432</v>
       </c>
       <c r="AB9">
-        <v>1990.107224595</v>
+        <v>2076.69585249</v>
       </c>
       <c r="AC9">
-        <v>3402.87140196</v>
+        <v>3544.70655168</v>
       </c>
       <c r="AD9">
-        <v>45229.70964988636</v>
+        <v>51917.39631224999</v>
       </c>
       <c r="AE9">
-        <v>63016.13707333333</v>
+        <v>77058.83808</v>
       </c>
       <c r="AF9">
-        <v>108245.8467232197</v>
+        <v>128976.23439225</v>
       </c>
     </row>
     <row r="10" spans="1:32">
@@ -1184,10 +1184,10 @@
         <v>6</v>
       </c>
       <c r="B10">
-        <v>21000</v>
+        <v>22000</v>
       </c>
       <c r="C10">
-        <v>46000</v>
+        <v>48000</v>
       </c>
       <c r="D10">
         <v>2000</v>
@@ -1196,10 +1196,10 @@
         <v>2000</v>
       </c>
       <c r="F10">
-        <v>0.043</v>
+        <v>0.04099999999999999</v>
       </c>
       <c r="G10">
-        <v>0.052</v>
+        <v>0.048</v>
       </c>
       <c r="H10">
         <v>8369.690000000001</v>
@@ -1220,10 +1220,10 @@
         <v>0.145</v>
       </c>
       <c r="N10">
-        <v>2109.16188</v>
+        <v>2209.59816</v>
       </c>
       <c r="O10">
-        <v>3783.91584</v>
+        <v>3948.43392</v>
       </c>
       <c r="P10">
         <v>200.87256</v>
@@ -1232,49 +1232,49 @@
         <v>164.51808</v>
       </c>
       <c r="R10">
-        <v>1757.6349</v>
+        <v>1841.3318</v>
       </c>
       <c r="S10">
-        <v>3153.2632</v>
+        <v>3290.3616</v>
       </c>
       <c r="T10">
-        <v>17.576349</v>
+        <v>18.413318</v>
       </c>
       <c r="U10">
-        <v>31.532632</v>
+        <v>32.903616</v>
       </c>
       <c r="V10">
-        <v>2327.610789</v>
+        <v>2428.884038</v>
       </c>
       <c r="W10">
-        <v>3979.966552</v>
+        <v>4145.855616</v>
       </c>
       <c r="X10">
-        <v>2327.610789</v>
+        <v>2428.884038</v>
       </c>
       <c r="Y10">
-        <v>3979.966552</v>
+        <v>4145.855616</v>
       </c>
       <c r="Z10">
-        <v>337.503564405</v>
+        <v>352.1881855099999</v>
       </c>
       <c r="AA10">
-        <v>577.0951500399999</v>
+        <v>601.14906432</v>
       </c>
       <c r="AB10">
-        <v>1990.107224595</v>
+        <v>2076.69585249</v>
       </c>
       <c r="AC10">
-        <v>3402.87140196</v>
+        <v>3544.70655168</v>
       </c>
       <c r="AD10">
-        <v>46281.56336267442</v>
+        <v>50651.11835341463</v>
       </c>
       <c r="AE10">
-        <v>65439.83465307692</v>
+        <v>73848.05316</v>
       </c>
       <c r="AF10">
-        <v>111721.3980157513</v>
+        <v>124499.1715134146</v>
       </c>
     </row>
     <row r="11" spans="1:32">
@@ -1282,10 +1282,10 @@
         <v>7</v>
       </c>
       <c r="B11">
-        <v>21000</v>
+        <v>22000</v>
       </c>
       <c r="C11">
-        <v>46000</v>
+        <v>48000</v>
       </c>
       <c r="D11">
         <v>2000</v>
@@ -1318,10 +1318,10 @@
         <v>0.145</v>
       </c>
       <c r="N11">
-        <v>2109.16188</v>
+        <v>2209.59816</v>
       </c>
       <c r="O11">
-        <v>3783.91584</v>
+        <v>3948.43392</v>
       </c>
       <c r="P11">
         <v>200.87256</v>
@@ -1330,49 +1330,49 @@
         <v>164.51808</v>
       </c>
       <c r="R11">
-        <v>1757.6349</v>
+        <v>1841.3318</v>
       </c>
       <c r="S11">
-        <v>3153.2632</v>
+        <v>3290.3616</v>
       </c>
       <c r="T11">
-        <v>17.576349</v>
+        <v>18.413318</v>
       </c>
       <c r="U11">
-        <v>31.532632</v>
+        <v>32.903616</v>
       </c>
       <c r="V11">
-        <v>2327.610789</v>
+        <v>2428.884038</v>
       </c>
       <c r="W11">
-        <v>3979.966552</v>
+        <v>4145.855616</v>
       </c>
       <c r="X11">
-        <v>2327.610789</v>
+        <v>2428.884038</v>
       </c>
       <c r="Y11">
-        <v>3979.966552</v>
+        <v>4145.855616</v>
       </c>
       <c r="Z11">
-        <v>337.503564405</v>
+        <v>352.1881855099999</v>
       </c>
       <c r="AA11">
-        <v>577.0951500399999</v>
+        <v>601.14906432</v>
       </c>
       <c r="AB11">
-        <v>1990.107224595</v>
+        <v>2076.69585249</v>
       </c>
       <c r="AC11">
-        <v>3402.87140196</v>
+        <v>3544.70655168</v>
       </c>
       <c r="AD11">
-        <v>47383.50534749999</v>
+        <v>49445.13934499999</v>
       </c>
       <c r="AE11">
-        <v>68057.42803919999</v>
+        <v>70894.13103359999</v>
       </c>
       <c r="AF11">
-        <v>115440.9333867</v>
+        <v>120339.2703786</v>
       </c>
     </row>
     <row r="12" spans="1:32">
@@ -1380,10 +1380,10 @@
         <v>8</v>
       </c>
       <c r="B12">
-        <v>21000</v>
+        <v>22000</v>
       </c>
       <c r="C12">
-        <v>46000</v>
+        <v>48000</v>
       </c>
       <c r="D12">
         <v>2000</v>
@@ -1392,10 +1392,10 @@
         <v>2000</v>
       </c>
       <c r="F12">
-        <v>0.04099999999999999</v>
+        <v>0.043</v>
       </c>
       <c r="G12">
-        <v>0.048</v>
+        <v>0.052</v>
       </c>
       <c r="H12">
         <v>8369.690000000001</v>
@@ -1416,10 +1416,10 @@
         <v>0.145</v>
       </c>
       <c r="N12">
-        <v>2109.16188</v>
+        <v>2209.59816</v>
       </c>
       <c r="O12">
-        <v>3783.91584</v>
+        <v>3948.43392</v>
       </c>
       <c r="P12">
         <v>200.87256</v>
@@ -1428,49 +1428,49 @@
         <v>164.51808</v>
       </c>
       <c r="R12">
-        <v>1757.6349</v>
+        <v>1841.3318</v>
       </c>
       <c r="S12">
-        <v>3153.2632</v>
+        <v>3290.3616</v>
       </c>
       <c r="T12">
-        <v>17.576349</v>
+        <v>18.413318</v>
       </c>
       <c r="U12">
-        <v>31.532632</v>
+        <v>32.903616</v>
       </c>
       <c r="V12">
-        <v>2327.610789</v>
+        <v>2428.884038</v>
       </c>
       <c r="W12">
-        <v>3979.966552</v>
+        <v>4145.855616</v>
       </c>
       <c r="X12">
-        <v>2327.610789</v>
+        <v>2428.884038</v>
       </c>
       <c r="Y12">
-        <v>3979.966552</v>
+        <v>4145.855616</v>
       </c>
       <c r="Z12">
-        <v>337.503564405</v>
+        <v>352.1881855099999</v>
       </c>
       <c r="AA12">
-        <v>577.0951500399999</v>
+        <v>601.14906432</v>
       </c>
       <c r="AB12">
-        <v>1990.107224595</v>
+        <v>2076.69585249</v>
       </c>
       <c r="AC12">
-        <v>3402.87140196</v>
+        <v>3544.70655168</v>
       </c>
       <c r="AD12">
-        <v>48539.20059987805</v>
+        <v>48295.25238348837</v>
       </c>
       <c r="AE12">
-        <v>70893.1542075</v>
+        <v>68167.43368615383</v>
       </c>
       <c r="AF12">
-        <v>119432.3548073781</v>
+        <v>116462.6860696422</v>
       </c>
     </row>
     <row r="13" spans="1:32">
@@ -1478,10 +1478,10 @@
         <v>9</v>
       </c>
       <c r="B13">
-        <v>21000</v>
+        <v>22000</v>
       </c>
       <c r="C13">
-        <v>46000</v>
+        <v>48000</v>
       </c>
       <c r="D13">
         <v>2000</v>
@@ -1490,10 +1490,10 @@
         <v>2000</v>
       </c>
       <c r="F13">
-        <v>0.04</v>
+        <v>0.044</v>
       </c>
       <c r="G13">
-        <v>0.046</v>
+        <v>0.05400000000000001</v>
       </c>
       <c r="H13">
         <v>8369.690000000001</v>
@@ -1514,10 +1514,10 @@
         <v>0.145</v>
       </c>
       <c r="N13">
-        <v>2109.16188</v>
+        <v>2209.59816</v>
       </c>
       <c r="O13">
-        <v>3783.91584</v>
+        <v>3948.43392</v>
       </c>
       <c r="P13">
         <v>200.87256</v>
@@ -1526,49 +1526,49 @@
         <v>164.51808</v>
       </c>
       <c r="R13">
-        <v>1757.6349</v>
+        <v>1841.3318</v>
       </c>
       <c r="S13">
-        <v>3153.2632</v>
+        <v>3290.3616</v>
       </c>
       <c r="T13">
-        <v>17.576349</v>
+        <v>18.413318</v>
       </c>
       <c r="U13">
-        <v>31.532632</v>
+        <v>32.903616</v>
       </c>
       <c r="V13">
-        <v>2327.610789</v>
+        <v>2428.884038</v>
       </c>
       <c r="W13">
-        <v>3979.966552</v>
+        <v>4145.855616</v>
       </c>
       <c r="X13">
-        <v>2327.610789</v>
+        <v>2428.884038</v>
       </c>
       <c r="Y13">
-        <v>3979.966552</v>
+        <v>4145.855616</v>
       </c>
       <c r="Z13">
-        <v>337.503564405</v>
+        <v>352.1881855099999</v>
       </c>
       <c r="AA13">
-        <v>577.0951500399999</v>
+        <v>601.14906432</v>
       </c>
       <c r="AB13">
-        <v>1990.107224595</v>
+        <v>2076.69585249</v>
       </c>
       <c r="AC13">
-        <v>3402.87140196</v>
+        <v>3544.70655168</v>
       </c>
       <c r="AD13">
-        <v>49752.680614875</v>
+        <v>47197.63301113635</v>
       </c>
       <c r="AE13">
-        <v>73975.46526000001</v>
+        <v>65642.71391999999</v>
       </c>
       <c r="AF13">
-        <v>123728.145874875</v>
+        <v>112840.3469311363</v>
       </c>
     </row>
     <row r="14" spans="1:32">
@@ -1576,10 +1576,10 @@
         <v>10</v>
       </c>
       <c r="B14">
-        <v>22000</v>
+        <v>23000</v>
       </c>
       <c r="C14">
-        <v>48000</v>
+        <v>50000</v>
       </c>
       <c r="D14">
         <v>2000</v>
@@ -1588,10 +1588,10 @@
         <v>2000</v>
       </c>
       <c r="F14">
-        <v>0.044</v>
+        <v>0.04</v>
       </c>
       <c r="G14">
-        <v>0.05400000000000001</v>
+        <v>0.046</v>
       </c>
       <c r="H14">
         <v>8369.690000000001</v>
@@ -1612,10 +1612,10 @@
         <v>0.145</v>
       </c>
       <c r="N14">
-        <v>2209.59816</v>
+        <v>2310.03444</v>
       </c>
       <c r="O14">
-        <v>3948.43392</v>
+        <v>4112.952</v>
       </c>
       <c r="P14">
         <v>200.87256</v>
@@ -1624,49 +1624,49 @@
         <v>164.51808</v>
       </c>
       <c r="R14">
-        <v>1841.3318</v>
+        <v>1925.0287</v>
       </c>
       <c r="S14">
-        <v>3290.3616</v>
+        <v>3427.46</v>
       </c>
       <c r="T14">
-        <v>18.413318</v>
+        <v>19.250287</v>
       </c>
       <c r="U14">
-        <v>32.903616</v>
+        <v>34.2746</v>
       </c>
       <c r="V14">
-        <v>2428.884038</v>
+        <v>2530.157287</v>
       </c>
       <c r="W14">
-        <v>4145.855616</v>
+        <v>4311.74468</v>
       </c>
       <c r="X14">
-        <v>2428.884038</v>
+        <v>2530.157287</v>
       </c>
       <c r="Y14">
-        <v>4145.855616</v>
+        <v>4311.74468</v>
       </c>
       <c r="Z14">
-        <v>352.1881855099999</v>
+        <v>366.8728066149999</v>
       </c>
       <c r="AA14">
-        <v>601.14906432</v>
+        <v>625.2029785999999</v>
       </c>
       <c r="AB14">
-        <v>2076.69585249</v>
+        <v>2163.284480385</v>
       </c>
       <c r="AC14">
-        <v>3544.70655168</v>
+        <v>3686.5417014</v>
       </c>
       <c r="AD14">
-        <v>47197.63301113635</v>
+        <v>54082.11200962499</v>
       </c>
       <c r="AE14">
-        <v>65642.71391999999</v>
+        <v>80142.21090000001</v>
       </c>
       <c r="AF14">
-        <v>112840.3469311363</v>
+        <v>134224.322909625</v>
       </c>
     </row>
     <row r="15" spans="1:32">
@@ -1674,10 +1674,10 @@
         <v>11</v>
       </c>
       <c r="B15">
-        <v>22000</v>
+        <v>23000</v>
       </c>
       <c r="C15">
-        <v>48000</v>
+        <v>50000</v>
       </c>
       <c r="D15">
         <v>2000</v>
@@ -1686,10 +1686,10 @@
         <v>2000</v>
       </c>
       <c r="F15">
-        <v>0.043</v>
+        <v>0.04099999999999999</v>
       </c>
       <c r="G15">
-        <v>0.052</v>
+        <v>0.048</v>
       </c>
       <c r="H15">
         <v>8369.690000000001</v>
@@ -1710,10 +1710,10 @@
         <v>0.145</v>
       </c>
       <c r="N15">
-        <v>2209.59816</v>
+        <v>2310.03444</v>
       </c>
       <c r="O15">
-        <v>3948.43392</v>
+        <v>4112.952</v>
       </c>
       <c r="P15">
         <v>200.87256</v>
@@ -1722,49 +1722,49 @@
         <v>164.51808</v>
       </c>
       <c r="R15">
-        <v>1841.3318</v>
+        <v>1925.0287</v>
       </c>
       <c r="S15">
-        <v>3290.3616</v>
+        <v>3427.46</v>
       </c>
       <c r="T15">
-        <v>18.413318</v>
+        <v>19.250287</v>
       </c>
       <c r="U15">
-        <v>32.903616</v>
+        <v>34.2746</v>
       </c>
       <c r="V15">
-        <v>2428.884038</v>
+        <v>2530.157287</v>
       </c>
       <c r="W15">
-        <v>4145.855616</v>
+        <v>4311.74468</v>
       </c>
       <c r="X15">
-        <v>2428.884038</v>
+        <v>2530.157287</v>
       </c>
       <c r="Y15">
-        <v>4145.855616</v>
+        <v>4311.74468</v>
       </c>
       <c r="Z15">
-        <v>352.1881855099999</v>
+        <v>366.8728066149999</v>
       </c>
       <c r="AA15">
-        <v>601.14906432</v>
+        <v>625.2029785999999</v>
       </c>
       <c r="AB15">
-        <v>2076.69585249</v>
+        <v>2163.284480385</v>
       </c>
       <c r="AC15">
-        <v>3544.70655168</v>
+        <v>3686.5417014</v>
       </c>
       <c r="AD15">
-        <v>48295.25238348837</v>
+        <v>52763.03610695122</v>
       </c>
       <c r="AE15">
-        <v>68167.43368615383</v>
+        <v>76802.9521125</v>
       </c>
       <c r="AF15">
-        <v>116462.6860696422</v>
+        <v>129565.9882194512</v>
       </c>
     </row>
     <row r="16" spans="1:32">
@@ -1772,10 +1772,10 @@
         <v>12</v>
       </c>
       <c r="B16">
-        <v>22000</v>
+        <v>23000</v>
       </c>
       <c r="C16">
-        <v>48000</v>
+        <v>50000</v>
       </c>
       <c r="D16">
         <v>2000</v>
@@ -1808,10 +1808,10 @@
         <v>0.145</v>
       </c>
       <c r="N16">
-        <v>2209.59816</v>
+        <v>2310.03444</v>
       </c>
       <c r="O16">
-        <v>3948.43392</v>
+        <v>4112.952</v>
       </c>
       <c r="P16">
         <v>200.87256</v>
@@ -1820,49 +1820,49 @@
         <v>164.51808</v>
       </c>
       <c r="R16">
-        <v>1841.3318</v>
+        <v>1925.0287</v>
       </c>
       <c r="S16">
-        <v>3290.3616</v>
+        <v>3427.46</v>
       </c>
       <c r="T16">
-        <v>18.413318</v>
+        <v>19.250287</v>
       </c>
       <c r="U16">
-        <v>32.903616</v>
+        <v>34.2746</v>
       </c>
       <c r="V16">
-        <v>2428.884038</v>
+        <v>2530.157287</v>
       </c>
       <c r="W16">
-        <v>4145.855616</v>
+        <v>4311.74468</v>
       </c>
       <c r="X16">
-        <v>2428.884038</v>
+        <v>2530.157287</v>
       </c>
       <c r="Y16">
-        <v>4145.855616</v>
+        <v>4311.74468</v>
       </c>
       <c r="Z16">
-        <v>352.1881855099999</v>
+        <v>366.8728066149999</v>
       </c>
       <c r="AA16">
-        <v>601.14906432</v>
+        <v>625.2029785999999</v>
       </c>
       <c r="AB16">
-        <v>2076.69585249</v>
+        <v>2163.284480385</v>
       </c>
       <c r="AC16">
-        <v>3544.70655168</v>
+        <v>3686.5417014</v>
       </c>
       <c r="AD16">
-        <v>49445.13934499999</v>
+        <v>51506.77334249999</v>
       </c>
       <c r="AE16">
-        <v>70894.13103359999</v>
+        <v>73730.834028</v>
       </c>
       <c r="AF16">
-        <v>120339.2703786</v>
+        <v>125237.6073705</v>
       </c>
     </row>
     <row r="17" spans="1:32">
@@ -1870,10 +1870,10 @@
         <v>13</v>
       </c>
       <c r="B17">
-        <v>22000</v>
+        <v>23000</v>
       </c>
       <c r="C17">
-        <v>48000</v>
+        <v>50000</v>
       </c>
       <c r="D17">
         <v>2000</v>
@@ -1882,10 +1882,10 @@
         <v>2000</v>
       </c>
       <c r="F17">
-        <v>0.04099999999999999</v>
+        <v>0.043</v>
       </c>
       <c r="G17">
-        <v>0.048</v>
+        <v>0.052</v>
       </c>
       <c r="H17">
         <v>8369.690000000001</v>
@@ -1906,10 +1906,10 @@
         <v>0.145</v>
       </c>
       <c r="N17">
-        <v>2209.59816</v>
+        <v>2310.03444</v>
       </c>
       <c r="O17">
-        <v>3948.43392</v>
+        <v>4112.952</v>
       </c>
       <c r="P17">
         <v>200.87256</v>
@@ -1918,49 +1918,49 @@
         <v>164.51808</v>
       </c>
       <c r="R17">
-        <v>1841.3318</v>
+        <v>1925.0287</v>
       </c>
       <c r="S17">
-        <v>3290.3616</v>
+        <v>3427.46</v>
       </c>
       <c r="T17">
-        <v>18.413318</v>
+        <v>19.250287</v>
       </c>
       <c r="U17">
-        <v>32.903616</v>
+        <v>34.2746</v>
       </c>
       <c r="V17">
-        <v>2428.884038</v>
+        <v>2530.157287</v>
       </c>
       <c r="W17">
-        <v>4145.855616</v>
+        <v>4311.74468</v>
       </c>
       <c r="X17">
-        <v>2428.884038</v>
+        <v>2530.157287</v>
       </c>
       <c r="Y17">
-        <v>4145.855616</v>
+        <v>4311.74468</v>
       </c>
       <c r="Z17">
-        <v>352.1881855099999</v>
+        <v>366.8728066149999</v>
       </c>
       <c r="AA17">
-        <v>601.14906432</v>
+        <v>625.2029785999999</v>
       </c>
       <c r="AB17">
-        <v>2076.69585249</v>
+        <v>2163.284480385</v>
       </c>
       <c r="AC17">
-        <v>3544.70655168</v>
+        <v>3686.5417014</v>
       </c>
       <c r="AD17">
-        <v>50651.11835341463</v>
+        <v>50308.94140430233</v>
       </c>
       <c r="AE17">
-        <v>73848.05316</v>
+        <v>70895.03271923076</v>
       </c>
       <c r="AF17">
-        <v>124499.1715134146</v>
+        <v>121203.9741235331</v>
       </c>
     </row>
     <row r="18" spans="1:32">
@@ -1968,10 +1968,10 @@
         <v>14</v>
       </c>
       <c r="B18">
-        <v>22000</v>
+        <v>23000</v>
       </c>
       <c r="C18">
-        <v>48000</v>
+        <v>50000</v>
       </c>
       <c r="D18">
         <v>2000</v>
@@ -1980,10 +1980,10 @@
         <v>2000</v>
       </c>
       <c r="F18">
-        <v>0.04</v>
+        <v>0.044</v>
       </c>
       <c r="G18">
-        <v>0.046</v>
+        <v>0.05400000000000001</v>
       </c>
       <c r="H18">
         <v>8369.690000000001</v>
@@ -2004,10 +2004,10 @@
         <v>0.145</v>
       </c>
       <c r="N18">
-        <v>2209.59816</v>
+        <v>2310.03444</v>
       </c>
       <c r="O18">
-        <v>3948.43392</v>
+        <v>4112.952</v>
       </c>
       <c r="P18">
         <v>200.87256</v>
@@ -2016,49 +2016,49 @@
         <v>164.51808</v>
       </c>
       <c r="R18">
-        <v>1841.3318</v>
+        <v>1925.0287</v>
       </c>
       <c r="S18">
-        <v>3290.3616</v>
+        <v>3427.46</v>
       </c>
       <c r="T18">
-        <v>18.413318</v>
+        <v>19.250287</v>
       </c>
       <c r="U18">
-        <v>32.903616</v>
+        <v>34.2746</v>
       </c>
       <c r="V18">
-        <v>2428.884038</v>
+        <v>2530.157287</v>
       </c>
       <c r="W18">
-        <v>4145.855616</v>
+        <v>4311.74468</v>
       </c>
       <c r="X18">
-        <v>2428.884038</v>
+        <v>2530.157287</v>
       </c>
       <c r="Y18">
-        <v>4145.855616</v>
+        <v>4311.74468</v>
       </c>
       <c r="Z18">
-        <v>352.1881855099999</v>
+        <v>366.8728066149999</v>
       </c>
       <c r="AA18">
-        <v>601.14906432</v>
+        <v>625.2029785999999</v>
       </c>
       <c r="AB18">
-        <v>2076.69585249</v>
+        <v>2163.284480385</v>
       </c>
       <c r="AC18">
-        <v>3544.70655168</v>
+        <v>3686.5417014</v>
       </c>
       <c r="AD18">
-        <v>51917.39631224999</v>
+        <v>49165.55637238635</v>
       </c>
       <c r="AE18">
-        <v>77058.83808</v>
+        <v>68269.29076666666</v>
       </c>
       <c r="AF18">
-        <v>128976.23439225</v>
+        <v>117434.847139053</v>
       </c>
     </row>
     <row r="19" spans="1:32">
@@ -2066,10 +2066,10 @@
         <v>15</v>
       </c>
       <c r="B19">
-        <v>23000</v>
+        <v>24000</v>
       </c>
       <c r="C19">
-        <v>50000</v>
+        <v>52000</v>
       </c>
       <c r="D19">
         <v>2000</v>
@@ -2078,10 +2078,10 @@
         <v>2000</v>
       </c>
       <c r="F19">
-        <v>0.044</v>
+        <v>0.04</v>
       </c>
       <c r="G19">
-        <v>0.05400000000000001</v>
+        <v>0.046</v>
       </c>
       <c r="H19">
         <v>8369.690000000001</v>
@@ -2102,10 +2102,10 @@
         <v>0.145</v>
       </c>
       <c r="N19">
-        <v>2310.03444</v>
+        <v>2410.47072</v>
       </c>
       <c r="O19">
-        <v>4112.952</v>
+        <v>4277.47008</v>
       </c>
       <c r="P19">
         <v>200.87256</v>
@@ -2114,49 +2114,49 @@
         <v>164.51808</v>
       </c>
       <c r="R19">
-        <v>1925.0287</v>
+        <v>2008.7256</v>
       </c>
       <c r="S19">
-        <v>3427.46</v>
+        <v>3564.5584</v>
       </c>
       <c r="T19">
-        <v>19.250287</v>
+        <v>20.087256</v>
       </c>
       <c r="U19">
-        <v>34.2746</v>
+        <v>35.645584</v>
       </c>
       <c r="V19">
-        <v>2530.157287</v>
+        <v>2631.430535999999</v>
       </c>
       <c r="W19">
-        <v>4311.74468</v>
+        <v>4477.633744</v>
       </c>
       <c r="X19">
-        <v>2530.157287</v>
+        <v>2631.430535999999</v>
       </c>
       <c r="Y19">
-        <v>4311.74468</v>
+        <v>4477.633744</v>
       </c>
       <c r="Z19">
-        <v>366.8728066149999</v>
+        <v>381.5574277199999</v>
       </c>
       <c r="AA19">
-        <v>625.2029785999999</v>
+        <v>649.2568928799999</v>
       </c>
       <c r="AB19">
-        <v>2163.284480385</v>
+        <v>2249.87310828</v>
       </c>
       <c r="AC19">
-        <v>3686.5417014</v>
+        <v>3828.37685112</v>
       </c>
       <c r="AD19">
-        <v>49165.55637238635</v>
+        <v>56246.82770699999</v>
       </c>
       <c r="AE19">
-        <v>68269.29076666666</v>
+        <v>83225.58372</v>
       </c>
       <c r="AF19">
-        <v>117434.847139053</v>
+        <v>139472.411427</v>
       </c>
     </row>
     <row r="20" spans="1:32">
@@ -2164,10 +2164,10 @@
         <v>16</v>
       </c>
       <c r="B20">
-        <v>23000</v>
+        <v>24000</v>
       </c>
       <c r="C20">
-        <v>50000</v>
+        <v>52000</v>
       </c>
       <c r="D20">
         <v>2000</v>
@@ -2176,10 +2176,10 @@
         <v>2000</v>
       </c>
       <c r="F20">
-        <v>0.043</v>
+        <v>0.04099999999999999</v>
       </c>
       <c r="G20">
-        <v>0.052</v>
+        <v>0.048</v>
       </c>
       <c r="H20">
         <v>8369.690000000001</v>
@@ -2200,10 +2200,10 @@
         <v>0.145</v>
       </c>
       <c r="N20">
-        <v>2310.03444</v>
+        <v>2410.47072</v>
       </c>
       <c r="O20">
-        <v>4112.952</v>
+        <v>4277.47008</v>
       </c>
       <c r="P20">
         <v>200.87256</v>
@@ -2212,49 +2212,49 @@
         <v>164.51808</v>
       </c>
       <c r="R20">
-        <v>1925.0287</v>
+        <v>2008.7256</v>
       </c>
       <c r="S20">
-        <v>3427.46</v>
+        <v>3564.5584</v>
       </c>
       <c r="T20">
-        <v>19.250287</v>
+        <v>20.087256</v>
       </c>
       <c r="U20">
-        <v>34.2746</v>
+        <v>35.645584</v>
       </c>
       <c r="V20">
-        <v>2530.157287</v>
+        <v>2631.430535999999</v>
       </c>
       <c r="W20">
-        <v>4311.74468</v>
+        <v>4477.633744</v>
       </c>
       <c r="X20">
-        <v>2530.157287</v>
+        <v>2631.430535999999</v>
       </c>
       <c r="Y20">
-        <v>4311.74468</v>
+        <v>4477.633744</v>
       </c>
       <c r="Z20">
-        <v>366.8728066149999</v>
+        <v>381.5574277199999</v>
       </c>
       <c r="AA20">
-        <v>625.2029785999999</v>
+        <v>649.2568928799999</v>
       </c>
       <c r="AB20">
-        <v>2163.284480385</v>
+        <v>2249.87310828</v>
       </c>
       <c r="AC20">
-        <v>3686.5417014</v>
+        <v>3828.37685112</v>
       </c>
       <c r="AD20">
-        <v>50308.94140430233</v>
+        <v>54874.9538604878</v>
       </c>
       <c r="AE20">
-        <v>70895.03271923076</v>
+        <v>79757.851065</v>
       </c>
       <c r="AF20">
-        <v>121203.9741235331</v>
+        <v>134632.8049254878</v>
       </c>
     </row>
     <row r="21" spans="1:32">
@@ -2262,10 +2262,10 @@
         <v>17</v>
       </c>
       <c r="B21">
-        <v>23000</v>
+        <v>24000</v>
       </c>
       <c r="C21">
-        <v>50000</v>
+        <v>52000</v>
       </c>
       <c r="D21">
         <v>2000</v>
@@ -2298,10 +2298,10 @@
         <v>0.145</v>
       </c>
       <c r="N21">
-        <v>2310.03444</v>
+        <v>2410.47072</v>
       </c>
       <c r="O21">
-        <v>4112.952</v>
+        <v>4277.47008</v>
       </c>
       <c r="P21">
         <v>200.87256</v>
@@ -2310,49 +2310,49 @@
         <v>164.51808</v>
       </c>
       <c r="R21">
-        <v>1925.0287</v>
+        <v>2008.7256</v>
       </c>
       <c r="S21">
-        <v>3427.46</v>
+        <v>3564.5584</v>
       </c>
       <c r="T21">
-        <v>19.250287</v>
+        <v>20.087256</v>
       </c>
       <c r="U21">
-        <v>34.2746</v>
+        <v>35.645584</v>
       </c>
       <c r="V21">
-        <v>2530.157287</v>
+        <v>2631.430535999999</v>
       </c>
       <c r="W21">
-        <v>4311.74468</v>
+        <v>4477.633744</v>
       </c>
       <c r="X21">
-        <v>2530.157287</v>
+        <v>2631.430535999999</v>
       </c>
       <c r="Y21">
-        <v>4311.74468</v>
+        <v>4477.633744</v>
       </c>
       <c r="Z21">
-        <v>366.8728066149999</v>
+        <v>381.5574277199999</v>
       </c>
       <c r="AA21">
-        <v>625.2029785999999</v>
+        <v>649.2568928799999</v>
       </c>
       <c r="AB21">
-        <v>2163.284480385</v>
+        <v>2249.87310828</v>
       </c>
       <c r="AC21">
-        <v>3686.5417014</v>
+        <v>3828.37685112</v>
       </c>
       <c r="AD21">
-        <v>51506.77334249999</v>
+        <v>53568.40733999998</v>
       </c>
       <c r="AE21">
-        <v>73730.834028</v>
+        <v>76567.53702239999</v>
       </c>
       <c r="AF21">
-        <v>125237.6073705</v>
+        <v>130135.9443624</v>
       </c>
     </row>
     <row r="22" spans="1:32">
@@ -2360,10 +2360,10 @@
         <v>18</v>
       </c>
       <c r="B22">
-        <v>23000</v>
+        <v>24000</v>
       </c>
       <c r="C22">
-        <v>50000</v>
+        <v>52000</v>
       </c>
       <c r="D22">
         <v>2000</v>
@@ -2372,10 +2372,10 @@
         <v>2000</v>
       </c>
       <c r="F22">
-        <v>0.04099999999999999</v>
+        <v>0.043</v>
       </c>
       <c r="G22">
-        <v>0.048</v>
+        <v>0.052</v>
       </c>
       <c r="H22">
         <v>8369.690000000001</v>
@@ -2396,10 +2396,10 @@
         <v>0.145</v>
       </c>
       <c r="N22">
-        <v>2310.03444</v>
+        <v>2410.47072</v>
       </c>
       <c r="O22">
-        <v>4112.952</v>
+        <v>4277.47008</v>
       </c>
       <c r="P22">
         <v>200.87256</v>
@@ -2408,49 +2408,49 @@
         <v>164.51808</v>
       </c>
       <c r="R22">
-        <v>1925.0287</v>
+        <v>2008.7256</v>
       </c>
       <c r="S22">
-        <v>3427.46</v>
+        <v>3564.5584</v>
       </c>
       <c r="T22">
-        <v>19.250287</v>
+        <v>20.087256</v>
       </c>
       <c r="U22">
-        <v>34.2746</v>
+        <v>35.645584</v>
       </c>
       <c r="V22">
-        <v>2530.157287</v>
+        <v>2631.430535999999</v>
       </c>
       <c r="W22">
-        <v>4311.74468</v>
+        <v>4477.633744</v>
       </c>
       <c r="X22">
-        <v>2530.157287</v>
+        <v>2631.430535999999</v>
       </c>
       <c r="Y22">
-        <v>4311.74468</v>
+        <v>4477.633744</v>
       </c>
       <c r="Z22">
-        <v>366.8728066149999</v>
+        <v>381.5574277199999</v>
       </c>
       <c r="AA22">
-        <v>625.2029785999999</v>
+        <v>649.2568928799999</v>
       </c>
       <c r="AB22">
-        <v>2163.284480385</v>
+        <v>2249.87310828</v>
       </c>
       <c r="AC22">
-        <v>3686.5417014</v>
+        <v>3828.37685112</v>
       </c>
       <c r="AD22">
-        <v>52763.03610695122</v>
+        <v>52322.63042511627</v>
       </c>
       <c r="AE22">
-        <v>76802.9521125</v>
+        <v>73622.63175230767</v>
       </c>
       <c r="AF22">
-        <v>129565.9882194512</v>
+        <v>125945.262177424</v>
       </c>
     </row>
     <row r="23" spans="1:32">
@@ -2458,10 +2458,10 @@
         <v>19</v>
       </c>
       <c r="B23">
-        <v>23000</v>
+        <v>24000</v>
       </c>
       <c r="C23">
-        <v>50000</v>
+        <v>52000</v>
       </c>
       <c r="D23">
         <v>2000</v>
@@ -2470,10 +2470,10 @@
         <v>2000</v>
       </c>
       <c r="F23">
-        <v>0.04</v>
+        <v>0.044</v>
       </c>
       <c r="G23">
-        <v>0.046</v>
+        <v>0.05400000000000001</v>
       </c>
       <c r="H23">
         <v>8369.690000000001</v>
@@ -2494,10 +2494,10 @@
         <v>0.145</v>
       </c>
       <c r="N23">
-        <v>2310.03444</v>
+        <v>2410.47072</v>
       </c>
       <c r="O23">
-        <v>4112.952</v>
+        <v>4277.47008</v>
       </c>
       <c r="P23">
         <v>200.87256</v>
@@ -2506,49 +2506,49 @@
         <v>164.51808</v>
       </c>
       <c r="R23">
-        <v>1925.0287</v>
+        <v>2008.7256</v>
       </c>
       <c r="S23">
-        <v>3427.46</v>
+        <v>3564.5584</v>
       </c>
       <c r="T23">
-        <v>19.250287</v>
+        <v>20.087256</v>
       </c>
       <c r="U23">
-        <v>34.2746</v>
+        <v>35.645584</v>
       </c>
       <c r="V23">
-        <v>2530.157287</v>
+        <v>2631.430535999999</v>
       </c>
       <c r="W23">
-        <v>4311.74468</v>
+        <v>4477.633744</v>
       </c>
       <c r="X23">
-        <v>2530.157287</v>
+        <v>2631.430535999999</v>
       </c>
       <c r="Y23">
-        <v>4311.74468</v>
+        <v>4477.633744</v>
       </c>
       <c r="Z23">
-        <v>366.8728066149999</v>
+        <v>381.5574277199999</v>
       </c>
       <c r="AA23">
-        <v>625.2029785999999</v>
+        <v>649.2568928799999</v>
       </c>
       <c r="AB23">
-        <v>2163.284480385</v>
+        <v>2249.87310828</v>
       </c>
       <c r="AC23">
-        <v>3686.5417014</v>
+        <v>3828.37685112</v>
       </c>
       <c r="AD23">
-        <v>54082.11200962499</v>
+        <v>51133.47973363635</v>
       </c>
       <c r="AE23">
-        <v>80142.21090000001</v>
+        <v>70895.86761333332</v>
       </c>
       <c r="AF23">
-        <v>134224.322909625</v>
+        <v>122029.3473469697</v>
       </c>
     </row>
     <row r="24" spans="1:32">
@@ -2556,10 +2556,10 @@
         <v>20</v>
       </c>
       <c r="B24">
-        <v>24000</v>
+        <v>25000</v>
       </c>
       <c r="C24">
-        <v>52000</v>
+        <v>54000</v>
       </c>
       <c r="D24">
         <v>2000</v>
@@ -2568,10 +2568,10 @@
         <v>2000</v>
       </c>
       <c r="F24">
-        <v>0.044</v>
+        <v>0.04</v>
       </c>
       <c r="G24">
-        <v>0.05400000000000001</v>
+        <v>0.046</v>
       </c>
       <c r="H24">
         <v>8369.690000000001</v>
@@ -2592,10 +2592,10 @@
         <v>0.145</v>
       </c>
       <c r="N24">
-        <v>2410.47072</v>
+        <v>2510.907</v>
       </c>
       <c r="O24">
-        <v>4277.47008</v>
+        <v>4441.98816</v>
       </c>
       <c r="P24">
         <v>200.87256</v>
@@ -2604,49 +2604,49 @@
         <v>164.51808</v>
       </c>
       <c r="R24">
-        <v>2008.7256</v>
+        <v>2092.4225</v>
       </c>
       <c r="S24">
-        <v>3564.5584</v>
+        <v>3701.6568</v>
       </c>
       <c r="T24">
-        <v>20.087256</v>
+        <v>20.924225</v>
       </c>
       <c r="U24">
-        <v>35.645584</v>
+        <v>37.016568</v>
       </c>
       <c r="V24">
-        <v>2631.430535999999</v>
+        <v>2732.703785</v>
       </c>
       <c r="W24">
-        <v>4477.633744</v>
+        <v>4643.522808</v>
       </c>
       <c r="X24">
-        <v>2631.430535999999</v>
+        <v>2732.703785</v>
       </c>
       <c r="Y24">
-        <v>4477.633744</v>
+        <v>4643.522808</v>
       </c>
       <c r="Z24">
-        <v>381.5574277199999</v>
+        <v>396.242048825</v>
       </c>
       <c r="AA24">
-        <v>649.2568928799999</v>
+        <v>673.31080716</v>
       </c>
       <c r="AB24">
-        <v>2249.87310828</v>
+        <v>2336.461736175</v>
       </c>
       <c r="AC24">
-        <v>3828.37685112</v>
+        <v>3970.21200084</v>
       </c>
       <c r="AD24">
-        <v>51133.47973363635</v>
+        <v>58411.54340437501</v>
       </c>
       <c r="AE24">
-        <v>70895.86761333332</v>
+        <v>86308.95654</v>
       </c>
       <c r="AF24">
-        <v>122029.3473469697</v>
+        <v>144720.499944375</v>
       </c>
     </row>
     <row r="25" spans="1:32">
@@ -2654,10 +2654,10 @@
         <v>21</v>
       </c>
       <c r="B25">
-        <v>24000</v>
+        <v>25000</v>
       </c>
       <c r="C25">
-        <v>52000</v>
+        <v>54000</v>
       </c>
       <c r="D25">
         <v>2000</v>
@@ -2666,10 +2666,10 @@
         <v>2000</v>
       </c>
       <c r="F25">
-        <v>0.043</v>
+        <v>0.04099999999999999</v>
       </c>
       <c r="G25">
-        <v>0.052</v>
+        <v>0.048</v>
       </c>
       <c r="H25">
         <v>8369.690000000001</v>
@@ -2690,10 +2690,10 @@
         <v>0.145</v>
       </c>
       <c r="N25">
-        <v>2410.47072</v>
+        <v>2510.907</v>
       </c>
       <c r="O25">
-        <v>4277.47008</v>
+        <v>4441.98816</v>
       </c>
       <c r="P25">
         <v>200.87256</v>
@@ -2702,49 +2702,49 @@
         <v>164.51808</v>
       </c>
       <c r="R25">
-        <v>2008.7256</v>
+        <v>2092.4225</v>
       </c>
       <c r="S25">
-        <v>3564.5584</v>
+        <v>3701.6568</v>
       </c>
       <c r="T25">
-        <v>20.087256</v>
+        <v>20.924225</v>
       </c>
       <c r="U25">
-        <v>35.645584</v>
+        <v>37.016568</v>
       </c>
       <c r="V25">
-        <v>2631.430535999999</v>
+        <v>2732.703785</v>
       </c>
       <c r="W25">
-        <v>4477.633744</v>
+        <v>4643.522808</v>
       </c>
       <c r="X25">
-        <v>2631.430535999999</v>
+        <v>2732.703785</v>
       </c>
       <c r="Y25">
-        <v>4477.633744</v>
+        <v>4643.522808</v>
       </c>
       <c r="Z25">
-        <v>381.5574277199999</v>
+        <v>396.242048825</v>
       </c>
       <c r="AA25">
-        <v>649.2568928799999</v>
+        <v>673.31080716</v>
       </c>
       <c r="AB25">
-        <v>2249.87310828</v>
+        <v>2336.461736175</v>
       </c>
       <c r="AC25">
-        <v>3828.37685112</v>
+        <v>3970.21200084</v>
       </c>
       <c r="AD25">
-        <v>52322.63042511627</v>
+        <v>56986.8716140244</v>
       </c>
       <c r="AE25">
-        <v>73622.63175230767</v>
+        <v>82712.75001749999</v>
       </c>
       <c r="AF25">
-        <v>125945.262177424</v>
+        <v>139699.6216315244</v>
       </c>
     </row>
     <row r="26" spans="1:32">
@@ -2752,10 +2752,10 @@
         <v>22</v>
       </c>
       <c r="B26">
-        <v>24000</v>
+        <v>25000</v>
       </c>
       <c r="C26">
-        <v>52000</v>
+        <v>54000</v>
       </c>
       <c r="D26">
         <v>2000</v>
@@ -2788,10 +2788,10 @@
         <v>0.145</v>
       </c>
       <c r="N26">
-        <v>2410.47072</v>
+        <v>2510.907</v>
       </c>
       <c r="O26">
-        <v>4277.47008</v>
+        <v>4441.98816</v>
       </c>
       <c r="P26">
         <v>200.87256</v>
@@ -2800,49 +2800,49 @@
         <v>164.51808</v>
       </c>
       <c r="R26">
-        <v>2008.7256</v>
+        <v>2092.4225</v>
       </c>
       <c r="S26">
-        <v>3564.5584</v>
+        <v>3701.6568</v>
       </c>
       <c r="T26">
-        <v>20.087256</v>
+        <v>20.924225</v>
       </c>
       <c r="U26">
-        <v>35.645584</v>
+        <v>37.016568</v>
       </c>
       <c r="V26">
-        <v>2631.430535999999</v>
+        <v>2732.703785</v>
       </c>
       <c r="W26">
-        <v>4477.633744</v>
+        <v>4643.522808</v>
       </c>
       <c r="X26">
-        <v>2631.430535999999</v>
+        <v>2732.703785</v>
       </c>
       <c r="Y26">
-        <v>4477.633744</v>
+        <v>4643.522808</v>
       </c>
       <c r="Z26">
-        <v>381.5574277199999</v>
+        <v>396.242048825</v>
       </c>
       <c r="AA26">
-        <v>649.2568928799999</v>
+        <v>673.31080716</v>
       </c>
       <c r="AB26">
-        <v>2249.87310828</v>
+        <v>2336.461736175</v>
       </c>
       <c r="AC26">
-        <v>3828.37685112</v>
+        <v>3970.21200084</v>
       </c>
       <c r="AD26">
-        <v>53568.40733999998</v>
+        <v>55630.0413375</v>
       </c>
       <c r="AE26">
-        <v>76567.53702239999</v>
+        <v>79404.24001679999</v>
       </c>
       <c r="AF26">
-        <v>130135.9443624</v>
+        <v>135034.2813543</v>
       </c>
     </row>
     <row r="27" spans="1:32">
@@ -2850,10 +2850,10 @@
         <v>23</v>
       </c>
       <c r="B27">
-        <v>24000</v>
+        <v>25000</v>
       </c>
       <c r="C27">
-        <v>52000</v>
+        <v>54000</v>
       </c>
       <c r="D27">
         <v>2000</v>
@@ -2862,10 +2862,10 @@
         <v>2000</v>
       </c>
       <c r="F27">
-        <v>0.04099999999999999</v>
+        <v>0.043</v>
       </c>
       <c r="G27">
-        <v>0.048</v>
+        <v>0.052</v>
       </c>
       <c r="H27">
         <v>8369.690000000001</v>
@@ -2886,10 +2886,10 @@
         <v>0.145</v>
       </c>
       <c r="N27">
-        <v>2410.47072</v>
+        <v>2510.907</v>
       </c>
       <c r="O27">
-        <v>4277.47008</v>
+        <v>4441.98816</v>
       </c>
       <c r="P27">
         <v>200.87256</v>
@@ -2898,49 +2898,49 @@
         <v>164.51808</v>
       </c>
       <c r="R27">
-        <v>2008.7256</v>
+        <v>2092.4225</v>
       </c>
       <c r="S27">
-        <v>3564.5584</v>
+        <v>3701.6568</v>
       </c>
       <c r="T27">
-        <v>20.087256</v>
+        <v>20.924225</v>
       </c>
       <c r="U27">
-        <v>35.645584</v>
+        <v>37.016568</v>
       </c>
       <c r="V27">
-        <v>2631.430535999999</v>
+        <v>2732.703785</v>
       </c>
       <c r="W27">
-        <v>4477.633744</v>
+        <v>4643.522808</v>
       </c>
       <c r="X27">
-        <v>2631.430535999999</v>
+        <v>2732.703785</v>
       </c>
       <c r="Y27">
-        <v>4477.633744</v>
+        <v>4643.522808</v>
       </c>
       <c r="Z27">
-        <v>381.5574277199999</v>
+        <v>396.242048825</v>
       </c>
       <c r="AA27">
-        <v>649.2568928799999</v>
+        <v>673.31080716</v>
       </c>
       <c r="AB27">
-        <v>2249.87310828</v>
+        <v>2336.461736175</v>
       </c>
       <c r="AC27">
-        <v>3828.37685112</v>
+        <v>3970.21200084</v>
       </c>
       <c r="AD27">
-        <v>54874.9538604878</v>
+        <v>54336.31944593024</v>
       </c>
       <c r="AE27">
-        <v>79757.851065</v>
+        <v>76350.2307853846</v>
       </c>
       <c r="AF27">
-        <v>134632.8049254878</v>
+        <v>130686.5502313148</v>
       </c>
     </row>
     <row r="28" spans="1:32">
@@ -2948,10 +2948,10 @@
         <v>24</v>
       </c>
       <c r="B28">
-        <v>24000</v>
+        <v>25000</v>
       </c>
       <c r="C28">
-        <v>52000</v>
+        <v>54000</v>
       </c>
       <c r="D28">
         <v>2000</v>
@@ -2960,10 +2960,10 @@
         <v>2000</v>
       </c>
       <c r="F28">
-        <v>0.04</v>
+        <v>0.044</v>
       </c>
       <c r="G28">
-        <v>0.046</v>
+        <v>0.05400000000000001</v>
       </c>
       <c r="H28">
         <v>8369.690000000001</v>
@@ -2984,10 +2984,10 @@
         <v>0.145</v>
       </c>
       <c r="N28">
-        <v>2410.47072</v>
+        <v>2510.907</v>
       </c>
       <c r="O28">
-        <v>4277.47008</v>
+        <v>4441.98816</v>
       </c>
       <c r="P28">
         <v>200.87256</v>
@@ -2996,49 +2996,49 @@
         <v>164.51808</v>
       </c>
       <c r="R28">
-        <v>2008.7256</v>
+        <v>2092.4225</v>
       </c>
       <c r="S28">
-        <v>3564.5584</v>
+        <v>3701.6568</v>
       </c>
       <c r="T28">
-        <v>20.087256</v>
+        <v>20.924225</v>
       </c>
       <c r="U28">
-        <v>35.645584</v>
+        <v>37.016568</v>
       </c>
       <c r="V28">
-        <v>2631.430535999999</v>
+        <v>2732.703785</v>
       </c>
       <c r="W28">
-        <v>4477.633744</v>
+        <v>4643.522808</v>
       </c>
       <c r="X28">
-        <v>2631.430535999999</v>
+        <v>2732.703785</v>
       </c>
       <c r="Y28">
-        <v>4477.633744</v>
+        <v>4643.522808</v>
       </c>
       <c r="Z28">
-        <v>381.5574277199999</v>
+        <v>396.242048825</v>
       </c>
       <c r="AA28">
-        <v>649.2568928799999</v>
+        <v>673.31080716</v>
       </c>
       <c r="AB28">
-        <v>2249.87310828</v>
+        <v>2336.461736175</v>
       </c>
       <c r="AC28">
-        <v>3828.37685112</v>
+        <v>3970.21200084</v>
       </c>
       <c r="AD28">
-        <v>56246.82770699999</v>
+        <v>53101.40309488637</v>
       </c>
       <c r="AE28">
-        <v>83225.58372</v>
+        <v>73522.44445999998</v>
       </c>
       <c r="AF28">
-        <v>139472.411427</v>
+        <v>126623.8475548863</v>
       </c>
     </row>
     <row r="29" spans="1:32">
@@ -3046,10 +3046,10 @@
         <v>25</v>
       </c>
       <c r="B29">
-        <v>25000</v>
+        <v>26000</v>
       </c>
       <c r="C29">
-        <v>54000</v>
+        <v>56000</v>
       </c>
       <c r="D29">
         <v>2000</v>
@@ -3058,10 +3058,10 @@
         <v>2000</v>
       </c>
       <c r="F29">
-        <v>0.044</v>
+        <v>0.04</v>
       </c>
       <c r="G29">
-        <v>0.05400000000000001</v>
+        <v>0.046</v>
       </c>
       <c r="H29">
         <v>8369.690000000001</v>
@@ -3082,10 +3082,10 @@
         <v>0.145</v>
       </c>
       <c r="N29">
-        <v>2510.907</v>
+        <v>2611.34328</v>
       </c>
       <c r="O29">
-        <v>4441.98816</v>
+        <v>4606.50624</v>
       </c>
       <c r="P29">
         <v>200.87256</v>
@@ -3094,49 +3094,49 @@
         <v>164.51808</v>
       </c>
       <c r="R29">
-        <v>2092.4225</v>
+        <v>2176.1194</v>
       </c>
       <c r="S29">
-        <v>3701.6568</v>
+        <v>3838.7552</v>
       </c>
       <c r="T29">
-        <v>20.924225</v>
+        <v>21.761194</v>
       </c>
       <c r="U29">
-        <v>37.016568</v>
+        <v>38.387552</v>
       </c>
       <c r="V29">
-        <v>2732.703785</v>
+        <v>2833.977034</v>
       </c>
       <c r="W29">
-        <v>4643.522808</v>
+        <v>4809.411872</v>
       </c>
       <c r="X29">
-        <v>2732.703785</v>
+        <v>2833.977034</v>
       </c>
       <c r="Y29">
-        <v>4643.522808</v>
+        <v>4809.411872</v>
       </c>
       <c r="Z29">
-        <v>396.242048825</v>
+        <v>410.9266699299999</v>
       </c>
       <c r="AA29">
-        <v>673.31080716</v>
+        <v>697.3647214399999</v>
       </c>
       <c r="AB29">
-        <v>2336.461736175</v>
+        <v>2423.05036407</v>
       </c>
       <c r="AC29">
-        <v>3970.21200084</v>
+        <v>4112.04715056</v>
       </c>
       <c r="AD29">
-        <v>53101.40309488637</v>
+        <v>60576.25910174999</v>
       </c>
       <c r="AE29">
-        <v>73522.44445999998</v>
+        <v>89392.32936</v>
       </c>
       <c r="AF29">
-        <v>126623.8475548863</v>
+        <v>149968.58846175</v>
       </c>
     </row>
     <row r="30" spans="1:32">
@@ -3144,10 +3144,10 @@
         <v>26</v>
       </c>
       <c r="B30">
-        <v>25000</v>
+        <v>26000</v>
       </c>
       <c r="C30">
-        <v>54000</v>
+        <v>56000</v>
       </c>
       <c r="D30">
         <v>2000</v>
@@ -3156,10 +3156,10 @@
         <v>2000</v>
       </c>
       <c r="F30">
-        <v>0.043</v>
+        <v>0.04099999999999999</v>
       </c>
       <c r="G30">
-        <v>0.052</v>
+        <v>0.048</v>
       </c>
       <c r="H30">
         <v>8369.690000000001</v>
@@ -3180,10 +3180,10 @@
         <v>0.145</v>
       </c>
       <c r="N30">
-        <v>2510.907</v>
+        <v>2611.34328</v>
       </c>
       <c r="O30">
-        <v>4441.98816</v>
+        <v>4606.50624</v>
       </c>
       <c r="P30">
         <v>200.87256</v>
@@ -3192,49 +3192,49 @@
         <v>164.51808</v>
       </c>
       <c r="R30">
-        <v>2092.4225</v>
+        <v>2176.1194</v>
       </c>
       <c r="S30">
-        <v>3701.6568</v>
+        <v>3838.7552</v>
       </c>
       <c r="T30">
-        <v>20.924225</v>
+        <v>21.761194</v>
       </c>
       <c r="U30">
-        <v>37.016568</v>
+        <v>38.387552</v>
       </c>
       <c r="V30">
-        <v>2732.703785</v>
+        <v>2833.977034</v>
       </c>
       <c r="W30">
-        <v>4643.522808</v>
+        <v>4809.411872</v>
       </c>
       <c r="X30">
-        <v>2732.703785</v>
+        <v>2833.977034</v>
       </c>
       <c r="Y30">
-        <v>4643.522808</v>
+        <v>4809.411872</v>
       </c>
       <c r="Z30">
-        <v>396.242048825</v>
+        <v>410.9266699299999</v>
       </c>
       <c r="AA30">
-        <v>673.31080716</v>
+        <v>697.3647214399999</v>
       </c>
       <c r="AB30">
-        <v>2336.461736175</v>
+        <v>2423.05036407</v>
       </c>
       <c r="AC30">
-        <v>3970.21200084</v>
+        <v>4112.04715056</v>
       </c>
       <c r="AD30">
-        <v>54336.31944593024</v>
+        <v>59098.78936756098</v>
       </c>
       <c r="AE30">
-        <v>76350.2307853846</v>
+        <v>85667.64896999999</v>
       </c>
       <c r="AF30">
-        <v>130686.5502313148</v>
+        <v>144766.438337561</v>
       </c>
     </row>
     <row r="31" spans="1:32">
@@ -3242,10 +3242,10 @@
         <v>27</v>
       </c>
       <c r="B31">
-        <v>25000</v>
+        <v>26000</v>
       </c>
       <c r="C31">
-        <v>54000</v>
+        <v>56000</v>
       </c>
       <c r="D31">
         <v>2000</v>
@@ -3278,10 +3278,10 @@
         <v>0.145</v>
       </c>
       <c r="N31">
-        <v>2510.907</v>
+        <v>2611.34328</v>
       </c>
       <c r="O31">
-        <v>4441.98816</v>
+        <v>4606.50624</v>
       </c>
       <c r="P31">
         <v>200.87256</v>
@@ -3290,49 +3290,49 @@
         <v>164.51808</v>
       </c>
       <c r="R31">
-        <v>2092.4225</v>
+        <v>2176.1194</v>
       </c>
       <c r="S31">
-        <v>3701.6568</v>
+        <v>3838.7552</v>
       </c>
       <c r="T31">
-        <v>20.924225</v>
+        <v>21.761194</v>
       </c>
       <c r="U31">
-        <v>37.016568</v>
+        <v>38.387552</v>
       </c>
       <c r="V31">
-        <v>2732.703785</v>
+        <v>2833.977034</v>
       </c>
       <c r="W31">
-        <v>4643.522808</v>
+        <v>4809.411872</v>
       </c>
       <c r="X31">
-        <v>2732.703785</v>
+        <v>2833.977034</v>
       </c>
       <c r="Y31">
-        <v>4643.522808</v>
+        <v>4809.411872</v>
       </c>
       <c r="Z31">
-        <v>396.242048825</v>
+        <v>410.9266699299999</v>
       </c>
       <c r="AA31">
-        <v>673.31080716</v>
+        <v>697.3647214399999</v>
       </c>
       <c r="AB31">
-        <v>2336.461736175</v>
+        <v>2423.05036407</v>
       </c>
       <c r="AC31">
-        <v>3970.21200084</v>
+        <v>4112.04715056</v>
       </c>
       <c r="AD31">
-        <v>55630.0413375</v>
+        <v>57691.67533499999</v>
       </c>
       <c r="AE31">
-        <v>79404.24001679999</v>
+        <v>82240.9430112</v>
       </c>
       <c r="AF31">
-        <v>135034.2813543</v>
+        <v>139932.6183462</v>
       </c>
     </row>
     <row r="32" spans="1:32">
@@ -3340,10 +3340,10 @@
         <v>28</v>
       </c>
       <c r="B32">
-        <v>25000</v>
+        <v>26000</v>
       </c>
       <c r="C32">
-        <v>54000</v>
+        <v>56000</v>
       </c>
       <c r="D32">
         <v>2000</v>
@@ -3352,10 +3352,10 @@
         <v>2000</v>
       </c>
       <c r="F32">
-        <v>0.04099999999999999</v>
+        <v>0.043</v>
       </c>
       <c r="G32">
-        <v>0.048</v>
+        <v>0.052</v>
       </c>
       <c r="H32">
         <v>8369.690000000001</v>
@@ -3376,10 +3376,10 @@
         <v>0.145</v>
       </c>
       <c r="N32">
-        <v>2510.907</v>
+        <v>2611.34328</v>
       </c>
       <c r="O32">
-        <v>4441.98816</v>
+        <v>4606.50624</v>
       </c>
       <c r="P32">
         <v>200.87256</v>
@@ -3388,49 +3388,49 @@
         <v>164.51808</v>
       </c>
       <c r="R32">
-        <v>2092.4225</v>
+        <v>2176.1194</v>
       </c>
       <c r="S32">
-        <v>3701.6568</v>
+        <v>3838.7552</v>
       </c>
       <c r="T32">
-        <v>20.924225</v>
+        <v>21.761194</v>
       </c>
       <c r="U32">
-        <v>37.016568</v>
+        <v>38.387552</v>
       </c>
       <c r="V32">
-        <v>2732.703785</v>
+        <v>2833.977034</v>
       </c>
       <c r="W32">
-        <v>4643.522808</v>
+        <v>4809.411872</v>
       </c>
       <c r="X32">
-        <v>2732.703785</v>
+        <v>2833.977034</v>
       </c>
       <c r="Y32">
-        <v>4643.522808</v>
+        <v>4809.411872</v>
       </c>
       <c r="Z32">
-        <v>396.242048825</v>
+        <v>410.9266699299999</v>
       </c>
       <c r="AA32">
-        <v>673.31080716</v>
+        <v>697.3647214399999</v>
       </c>
       <c r="AB32">
-        <v>2336.461736175</v>
+        <v>2423.05036407</v>
       </c>
       <c r="AC32">
-        <v>3970.21200084</v>
+        <v>4112.04715056</v>
       </c>
       <c r="AD32">
-        <v>56986.8716140244</v>
+        <v>56350.00846674419</v>
       </c>
       <c r="AE32">
-        <v>82712.75001749999</v>
+        <v>79077.82981846153</v>
       </c>
       <c r="AF32">
-        <v>139699.6216315244</v>
+        <v>135427.8382852057</v>
       </c>
     </row>
     <row r="33" spans="1:32">
@@ -3438,10 +3438,10 @@
         <v>29</v>
       </c>
       <c r="B33">
-        <v>25000</v>
+        <v>26000</v>
       </c>
       <c r="C33">
-        <v>54000</v>
+        <v>56000</v>
       </c>
       <c r="D33">
         <v>2000</v>
@@ -3450,10 +3450,10 @@
         <v>2000</v>
       </c>
       <c r="F33">
-        <v>0.04</v>
+        <v>0.044</v>
       </c>
       <c r="G33">
-        <v>0.046</v>
+        <v>0.05400000000000001</v>
       </c>
       <c r="H33">
         <v>8369.690000000001</v>
@@ -3474,10 +3474,10 @@
         <v>0.145</v>
       </c>
       <c r="N33">
-        <v>2510.907</v>
+        <v>2611.34328</v>
       </c>
       <c r="O33">
-        <v>4441.98816</v>
+        <v>4606.50624</v>
       </c>
       <c r="P33">
         <v>200.87256</v>
@@ -3486,49 +3486,49 @@
         <v>164.51808</v>
       </c>
       <c r="R33">
-        <v>2092.4225</v>
+        <v>2176.1194</v>
       </c>
       <c r="S33">
-        <v>3701.6568</v>
+        <v>3838.7552</v>
       </c>
       <c r="T33">
-        <v>20.924225</v>
+        <v>21.761194</v>
       </c>
       <c r="U33">
-        <v>37.016568</v>
+        <v>38.387552</v>
       </c>
       <c r="V33">
-        <v>2732.703785</v>
+        <v>2833.977034</v>
       </c>
       <c r="W33">
-        <v>4643.522808</v>
+        <v>4809.411872</v>
       </c>
       <c r="X33">
-        <v>2732.703785</v>
+        <v>2833.977034</v>
       </c>
       <c r="Y33">
-        <v>4643.522808</v>
+        <v>4809.411872</v>
       </c>
       <c r="Z33">
-        <v>396.242048825</v>
+        <v>410.9266699299999</v>
       </c>
       <c r="AA33">
-        <v>673.31080716</v>
+        <v>697.3647214399999</v>
       </c>
       <c r="AB33">
-        <v>2336.461736175</v>
+        <v>2423.05036407</v>
       </c>
       <c r="AC33">
-        <v>3970.21200084</v>
+        <v>4112.04715056</v>
       </c>
       <c r="AD33">
-        <v>58411.54340437501</v>
+        <v>55069.32645613635</v>
       </c>
       <c r="AE33">
-        <v>86308.95654</v>
+        <v>76149.02130666666</v>
       </c>
       <c r="AF33">
-        <v>144720.499944375</v>
+        <v>131218.347762803</v>
       </c>
     </row>
   </sheetData>
